--- a/问题反馈.xlsx
+++ b/问题反馈.xlsx
@@ -9,27 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="步骤条" sheetId="1" r:id="rId1"/>
+    <sheet name="公共问题" sheetId="2" r:id="rId1"/>
+    <sheet name="步骤条" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>一、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current 类型改成Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、value-field字段的作用是什么，是否为控制对应步骤的状态（wait,process,finish,error）?</t>
+    <t>一、每个组件的widget-code属性有什么作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,87 +83,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>189105</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>170807</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="342900"/>
-          <a:ext cx="11161905" cy="5142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>103476</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6000750"/>
-          <a:ext cx="10390476" cy="3876190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,32 +372,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B34"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>